--- a/biology/Zoologie/Diabrotica/Diabrotica.xlsx
+++ b/biology/Zoologie/Diabrotica/Diabrotica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diabrotica est un genre d'insectes coléoptères de la famille des Chrysomelidae. Plusieurs espèces de ce genre sont des ravageurs très agressifs pour les cultures, notamment Diabrotica undecimpunctata (chrysomèle maculée du concombre), Diabrotica virgifera et Diabrotica barberi (deux espèces de chrysomèles des racines du maïs).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (30 sept. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (30 sept. 2010) :
 Diabrotica balteata J. L. LeConte, 1865
 Diabrotica barberi R. Smith &amp; Lawrence, 1967
 Diabrotica cristata (Harris, 1836)
@@ -549,9 +563,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 sept. 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 sept. 2010) :
 Diabrotica adelpha
 Diabrotica amecameca
 Diabrotica balteata
